--- a/xlsx/加利福尼亚州市镇列表_intext.xlsx
+++ b/xlsx/加利福尼亚州市镇列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1266">
   <si>
     <t>加利福尼亚州市镇列表</t>
   </si>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%85%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>十六世紀</t>
+    <t>十六世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%83%E4%B8%96%E7%BA%AA</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B7%98%E9%87%91%E6%BD%AE</t>
   </si>
   <si>
-    <t>加利福尼亞淘金潮</t>
+    <t>加利福尼亚淘金潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E6%B3%95%E5%9C%98</t>
   </si>
   <si>
-    <t>市法團</t>
+    <t>市法团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%8B%89%E9%97%A8%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>好萊塢標誌</t>
+    <t>好莱坞标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>加利福尼亞州議會大廈</t>
+    <t>加利福尼亚州议会大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%BB%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98%E6%B8%AF</t>
   </si>
   <si>
-    <t>長灘港</t>
+    <t>长滩港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康科德 (加利福尼亞州)</t>
+    <t>康科德 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣</t>
+    <t>圣贝纳迪诺县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8F%A4%E6%8B%89%E5%B1%B1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9F%8F%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧柏尼 (加利福尼亞州)</t>
+    <t>奥柏尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BD%95%E5%B8%83%E6%8B%89</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%9B%BE%E6%8B%89%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%B3%BD%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>美利堅峽谷 (加利福尼亞州)</t>
+    <t>美利坚峡谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安條克 (加利福尼亞州)</t>
+    <t>安条克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E5%8E%BF</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%BF%E7%BD%97%E7%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -635,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴斯托 (加利福尼亞州)</t>
+    <t>巴斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%92%99%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎貝爾 (加利福尼亞州)</t>
+    <t>坎贝尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3</t>
   </si>
   <si>
-    <t>蒙特雷縣</t>
+    <t>蒙特雷县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B9%B3%E7%89%B9%E9%87%8C%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬德拉縣</t>
+    <t>马德拉县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%98%E6%8B%89%E7%BB%B4%E6%96%AF%E5%A1%94</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E6%B3%95%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科爾法克斯 (加利福尼亞州)</t>
+    <t>科尔法克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E9%A9%AC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1217,13 +1217,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>戴維斯 (加利福尼亞州)</t>
+    <t>戴维斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E9%A9%AC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1295,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>唐尼 (加利福尼亞州)</t>
+    <t>唐尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%98%BF%E5%B0%94%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1307,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%AF%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>都伯林 (加利福尼亞州)</t>
+    <t>都伯林 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E6%96%AF%E7%BC%AA%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1361,13 +1361,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E5%85%8B%E6%A0%BC%E7%BE%85%E5%A4%AB_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃爾克格羅夫 (加利福尼亞州)</t>
+    <t>埃尔克格罗夫 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8E%AB%E5%88%A9%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>愛莫利維爾</t>
+    <t>爱莫利维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E8%A5%BF%E5%B0%BC%E5%A1%94%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1385,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E5%AD%94%E8%BF%AA%E5%A4%9A</t>
@@ -1451,19 +1451,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%A3%AE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>佛森 (加利福尼亞州)</t>
+    <t>佛森 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%A1%94%E7%B4%8D_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>方塔納 (加利福尼亞州)</t>
+    <t>方塔纳 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E5%A0%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布拉格堡 (加利福尼亞州)</t>
+    <t>布拉格堡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E5%A4%9A%E8%A5%BF%E8%AF%BA%E5%8E%BF</t>
@@ -1517,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%99%BB%E6%A0%BC%E7%BE%85%E5%A4%AB_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加登格羅夫 (加利福尼亞州)</t>
+    <t>加登格罗夫 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%BF%AA%E7%BA%B3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1535,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%A4%9A%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1571,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E8%8F%B2%E5%B0%94%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1607,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%9C%88%E7%81%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>半月灣 (加利福尼亞州)</t>
+    <t>半月湾 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E7%A6%8F%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1685,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖貝尼托縣</t>
+    <t>圣贝尼托县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1703,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BB%B7%E9%A0%93%E6%AF%94%E5%A5%87</t>
   </si>
   <si>
-    <t>亨廷頓比奇</t>
+    <t>亨廷顿比奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BB%B7%E9%A1%BF%E5%85%AC%E5%9B%AD_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1733,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B6%AD%E7%88%BE%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>印第安維爾斯 (加利福尼亞州)</t>
+    <t>印第安维尔斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%A5%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1745,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>工業市 (加利福尼亞州)</t>
+    <t>工业市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%B0%94%E4%BC%8D%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1775,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%88%97%E9%A0%93_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾列頓 (加利福尼亞州)</t>
+    <t>艾列顿 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1967,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BD%9B%E6%91%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利佛摩 (加利福尼亞州)</t>
+    <t>利佛摩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%96%87%E6%96%AF%E9%A1%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2009,13 +2009,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯 (加利福尼亞州)</t>
+    <t>洛思阿图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯山丘 (加利福尼亞州)</t>
+    <t>洛思阿图斯山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%96%AF%E5%B7%B4%E8%AF%BA%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2027,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E5%8A%A0%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>洛思加圖斯</t>
+    <t>洛思加图斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E4%BA%9A%E5%B0%94%E9%A1%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2039,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>謝拉縣</t>
+    <t>谢拉县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%BC%8D%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2201,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A0%A4%E8%81%96%E5%88%A9%E8%AB%BE</t>
   </si>
   <si>
-    <t>蒙堤聖利諾</t>
+    <t>蒙堤圣利诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E6%8F%90%E8%B4%9D%E7%BD%97</t>
@@ -2297,7 +2297,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐華克 (加利福尼亞州)</t>
+    <t>纽华克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E6%9B%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2345,25 +2345,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%94%B3%E8%B3%BD%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐申賽德 (加利福尼亞州)</t>
+    <t>欧申赛德 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%B5%B7%E9%8E%AE</t>
   </si>
   <si>
-    <t>奧海鎮</t>
+    <t>奥海镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙市 (加利福尼亞州)</t>
+    <t>橙市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0%E6%B2%BB%E6%B9%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2423,19 +2423,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%B3%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>棕櫚泉 (加利福尼亞州)</t>
+    <t>棕榈泉 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>棕櫚谷 (加利福尼亞州)</t>
+    <t>棕榈谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%B4%9B%E6%96%AF%E5%BC%97%E8%BF%AA%E6%96%AF%E5%BA%84%E5%9B%AD</t>
@@ -2663,7 +2663,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%BE%B7%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2681,7 +2681,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%B2%BB%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>列治文 (加利福尼亞州)</t>
+    <t>列治文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%87%E5%85%8B%E8%8E%B1%E6%96%AF%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2843,7 +2843,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%88%A9%E5%AE%89%E5%8D%93_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖利安卓 (加利福尼亞州)</t>
+    <t>圣利安卓 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A5%E6%AF%94%E6%96%AF%E4%BF%9D</t>
@@ -2855,7 +2855,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E5%88%A9%E8%AF%BA_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2957,7 +2957,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩拉托加 (加利福尼亞州)</t>
+    <t>萨拉托加 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%90%A8%E5%88%A9%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3065,7 +3065,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%89%BE%E7%88%BE%E8%92%99%E5%9C%B0</t>
   </si>
   <si>
-    <t>南艾爾蒙地</t>
+    <t>南艾尔蒙地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%97%A8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3077,7 +3077,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E6%B5%A9%E6%B9%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>南太浩湖 (加利福尼亞州)</t>
+    <t>南太浩湖 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B8%95%E8%90%A8%E8%BF%AA%E7%BA%B3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3161,7 +3161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%99%AE%E7%88%BE%E5%B8%82</t>
   </si>
   <si>
-    <t>坦普爾市</t>
+    <t>坦普尔市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8D%E6%9B%BE%E5%BE%B7%E5%A5%A5%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3179,7 +3179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%80%AB%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>托倫斯 (加利福尼亞州)</t>
+    <t>托伦斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%9B%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3239,7 +3239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聯合市 (加利福尼亞州)</t>
+    <t>联合市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%99%AE%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3275,7 +3275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E6%96%AF%E5%A1%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3443,7 +3443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3479,15 +3479,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
@@ -3503,7 +3500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3515,7 +3512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3545,9 +3542,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
@@ -3575,21 +3569,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%96%AF%E5%A1%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
@@ -3599,7 +3590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -3635,19 +3626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -3713,13 +3698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -3731,7 +3716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -3749,19 +3734,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E%E5%B8%82%E9%95%87%E5%88%97%E8%A1%A8</t>
@@ -3797,7 +3782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>紐約州城市列表</t>
+    <t>纽约州城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E%E5%B8%82%E9%95%87%E5%88%97%E8%A1%A8</t>
@@ -3827,7 +3812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>按人口排列的美國城市列表</t>
+    <t>按人口排列的美国城市列表</t>
   </si>
 </sst>
 </file>
@@ -20989,7 +20974,7 @@
         <v>1155</v>
       </c>
       <c r="F580" t="s">
-        <v>1156</v>
+        <v>130</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21015,10 +21000,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F581" t="s">
         <v>1157</v>
-      </c>
-      <c r="F581" t="s">
-        <v>1158</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21044,10 +21029,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F582" t="s">
         <v>1159</v>
-      </c>
-      <c r="F582" t="s">
-        <v>1160</v>
       </c>
       <c r="G582" t="n">
         <v>8</v>
@@ -21073,10 +21058,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F583" t="s">
         <v>1161</v>
-      </c>
-      <c r="F583" t="s">
-        <v>1162</v>
       </c>
       <c r="G583" t="n">
         <v>6</v>
@@ -21102,10 +21087,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F584" t="s">
         <v>1163</v>
-      </c>
-      <c r="F584" t="s">
-        <v>1164</v>
       </c>
       <c r="G584" t="n">
         <v>2</v>
@@ -21131,10 +21116,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F585" t="s">
         <v>1165</v>
-      </c>
-      <c r="F585" t="s">
-        <v>1166</v>
       </c>
       <c r="G585" t="n">
         <v>20</v>
@@ -21160,10 +21145,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F586" t="s">
         <v>1167</v>
-      </c>
-      <c r="F586" t="s">
-        <v>1168</v>
       </c>
       <c r="G586" t="n">
         <v>2</v>
@@ -21189,10 +21174,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F587" t="s">
         <v>1169</v>
-      </c>
-      <c r="F587" t="s">
-        <v>1170</v>
       </c>
       <c r="G587" t="n">
         <v>3</v>
@@ -21218,10 +21203,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F588" t="s">
         <v>1171</v>
-      </c>
-      <c r="F588" t="s">
-        <v>1172</v>
       </c>
       <c r="G588" t="n">
         <v>6</v>
@@ -21305,10 +21290,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F591" t="s">
         <v>1173</v>
-      </c>
-      <c r="F591" t="s">
-        <v>1174</v>
       </c>
       <c r="G591" t="n">
         <v>12</v>
@@ -21363,10 +21348,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F593" t="s">
-        <v>1176</v>
+        <v>336</v>
       </c>
       <c r="G593" t="n">
         <v>5</v>
@@ -21392,10 +21377,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F594" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G594" t="n">
         <v>3</v>
@@ -21450,10 +21435,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F596" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21537,10 +21522,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F599" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G599" t="n">
         <v>2</v>
@@ -21682,10 +21667,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F604" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G604" t="n">
         <v>2</v>
@@ -21740,10 +21725,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F606" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G606" t="n">
         <v>3</v>
@@ -21769,10 +21754,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F607" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G607" t="n">
         <v>20</v>
@@ -21827,10 +21812,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F609" t="s">
-        <v>1190</v>
+        <v>172</v>
       </c>
       <c r="G609" t="n">
         <v>8</v>
@@ -21885,10 +21870,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="F611" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="G611" t="n">
         <v>7</v>
@@ -21914,10 +21899,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="F612" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21943,10 +21928,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F613" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="G613" t="n">
         <v>10</v>
@@ -21972,10 +21957,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="F614" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="G614" t="n">
         <v>8</v>
@@ -22088,10 +22073,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="F618" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="G618" t="n">
         <v>4</v>
@@ -22117,10 +22102,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F619" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22146,10 +22131,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="F620" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="G620" t="n">
         <v>2</v>
@@ -22233,10 +22218,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F623" t="s">
-        <v>1206</v>
+        <v>102</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22320,10 +22305,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F626" t="s">
-        <v>1208</v>
+        <v>82</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22378,10 +22363,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F628" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22407,10 +22392,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F629" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22436,10 +22421,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F630" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22465,10 +22450,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F631" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22494,10 +22479,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="F632" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22523,10 +22508,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F633" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22552,10 +22537,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="F634" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22581,10 +22566,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="F635" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22610,10 +22595,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="F636" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22639,10 +22624,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F637" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="G637" t="n">
         <v>2</v>
@@ -22668,10 +22653,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F638" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22697,10 +22682,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="F639" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22726,10 +22711,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F640" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22755,10 +22740,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F641" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22784,10 +22769,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F642" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="G642" t="n">
         <v>3</v>
@@ -22813,10 +22798,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F643" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22842,10 +22827,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="F644" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22871,10 +22856,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="F645" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22900,10 +22885,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="F646" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22929,10 +22914,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F647" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22958,10 +22943,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F648" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22987,10 +22972,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F649" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G649" t="n">
         <v>2</v>
@@ -23016,10 +23001,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="F650" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23045,10 +23030,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F651" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23074,10 +23059,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="F652" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23103,10 +23088,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F653" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23132,10 +23117,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F654" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23161,10 +23146,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="F655" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23190,10 +23175,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F656" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23219,10 +23204,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F657" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23248,10 +23233,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F658" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
